--- a/data/dxa/ribose_dxa.xlsx
+++ b/data/dxa/ribose_dxa.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristianlian/R/master_degree/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3560e5ddcd8545bd/Documents/ribose-paper/data/dxa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF9D4F-C5B7-6E48-86B4-B7C969CD4EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{75EF9D4F-C5B7-6E48-86B4-B7C969CD4EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305910B6-7883-4C95-AB65-71991EFDF4E5}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{6D769E4F-CFA3-7547-BA0D-CE0DC231CC0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D769E4F-CFA3-7547-BA0D-CE0DC231CC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>subject</t>
   </si>
@@ -76,6 +78,9 @@
   </si>
   <si>
     <t>ffmg</t>
+  </si>
+  <si>
+    <t>bodyfat</t>
   </si>
 </sst>
 </file>
@@ -133,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,22 +434,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B56A70-3E17-894A-954C-0FF0BC91DC6D}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +483,11 @@
       <c r="K1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -513,8 +521,12 @@
       <c r="K2">
         <v>50746</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f ca="1">RANDBETWEEN(15, 25)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -548,8 +560,12 @@
       <c r="K3">
         <v>45335</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" ref="L3:L17" ca="1" si="0">RANDBETWEEN(15, 25)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -583,8 +599,12 @@
       <c r="K4">
         <v>50948</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -618,8 +638,12 @@
       <c r="K5" s="2">
         <v>46001.238789814</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -653,8 +677,12 @@
       <c r="K6" s="2">
         <v>65704.021942052001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -688,8 +716,12 @@
       <c r="K7" s="2">
         <v>68539.903451670994</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -723,8 +755,12 @@
       <c r="K8" s="2">
         <v>58457.592294005997</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -758,8 +794,12 @@
       <c r="K9" s="2">
         <v>64206.695484967</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -793,8 +833,12 @@
       <c r="K10" s="2">
         <v>64161.925242363999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -828,8 +872,12 @@
       <c r="K11" s="2">
         <v>52923.205824076998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -863,8 +911,12 @@
       <c r="K12" s="2">
         <v>70190.122689529002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
@@ -898,8 +950,12 @@
       <c r="K13" s="2">
         <v>53974.697192562999</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -933,8 +989,12 @@
       <c r="K14" s="2">
         <v>69597.878284872</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
@@ -968,8 +1028,12 @@
       <c r="K15" s="2">
         <v>65270.837611755</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1003,8 +1067,12 @@
       <c r="K16" s="2">
         <v>58114.797335935</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1037,6 +1105,10 @@
       </c>
       <c r="K17" s="2">
         <v>60620.036015616002</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/dxa/ribose_dxa.xlsx
+++ b/data/dxa/ribose_dxa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3560e5ddcd8545bd/Documents/ribose-paper/data/dxa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{75EF9D4F-C5B7-6E48-86B4-B7C969CD4EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305910B6-7883-4C95-AB65-71991EFDF4E5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{75EF9D4F-C5B7-6E48-86B4-B7C969CD4EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A36B5F-A3CC-4E0A-96DC-76ABC5DCD195}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D769E4F-CFA3-7547-BA0D-CE0DC231CC0E}"/>
   </bookViews>
@@ -87,10 +87,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +143,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +449,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,9 +533,8 @@
       <c r="K2">
         <v>50746</v>
       </c>
-      <c r="L2">
-        <f ca="1">RANDBETWEEN(15, 25)</f>
-        <v>20</v>
+      <c r="L2" s="3">
+        <v>21.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -560,9 +571,8 @@
       <c r="K3">
         <v>45335</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L17" ca="1" si="0">RANDBETWEEN(15, 25)</f>
-        <v>23</v>
+      <c r="L3" s="3">
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -599,9 +609,8 @@
       <c r="K4">
         <v>50948</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+      <c r="L4" s="3">
+        <v>29.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -638,9 +647,8 @@
       <c r="K5" s="2">
         <v>46001.238789814</v>
       </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+      <c r="L5" s="3">
+        <v>29.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,9 +685,8 @@
       <c r="K6" s="2">
         <v>65704.021942052001</v>
       </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+      <c r="L6" s="3">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -716,9 +723,8 @@
       <c r="K7" s="2">
         <v>68539.903451670994</v>
       </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+      <c r="L7" s="3">
+        <v>10.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -755,9 +761,8 @@
       <c r="K8" s="2">
         <v>58457.592294005997</v>
       </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+      <c r="L8" s="3">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -794,9 +799,8 @@
       <c r="K9" s="2">
         <v>64206.695484967</v>
       </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+      <c r="L9" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,9 +837,8 @@
       <c r="K10" s="2">
         <v>64161.925242363999</v>
       </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+      <c r="L10" s="3">
+        <v>29.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -872,9 +875,8 @@
       <c r="K11" s="2">
         <v>52923.205824076998</v>
       </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+      <c r="L11" s="3">
+        <v>24.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -911,9 +913,8 @@
       <c r="K12" s="2">
         <v>70190.122689529002</v>
       </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+      <c r="L12" s="3">
+        <v>11.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -950,9 +951,8 @@
       <c r="K13" s="2">
         <v>53974.697192562999</v>
       </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+      <c r="L13" s="3">
+        <v>26.8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -989,9 +989,8 @@
       <c r="K14" s="2">
         <v>69597.878284872</v>
       </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+      <c r="L14" s="3">
+        <v>13.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1028,9 +1027,8 @@
       <c r="K15" s="2">
         <v>65270.837611755</v>
       </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+      <c r="L15" s="3">
+        <v>16.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1067,9 +1065,8 @@
       <c r="K16" s="2">
         <v>58114.797335935</v>
       </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+      <c r="L16" s="3">
+        <v>25.8</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1106,9 +1103,8 @@
       <c r="K17" s="2">
         <v>60620.036015616002</v>
       </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+      <c r="L17" s="3">
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
